--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_23_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_23_7.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_22</t>
+          <t>model_23_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9282845410391477</v>
+        <v>0.9329584625115663</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7974461157366327</v>
+        <v>0.8277599060872463</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8557018706053373</v>
+        <v>0.465024851014838</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8976119404831444</v>
+        <v>0.9645770410843238</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8758912717723538</v>
+        <v>0.934814949733454</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4795616042905443</v>
+        <v>0.4483070698830515</v>
       </c>
       <c r="H2" t="n">
-        <v>1.354478756744015</v>
+        <v>1.151770301087292</v>
       </c>
       <c r="I2" t="n">
-        <v>1.571853394431575</v>
+        <v>0.7531560822646259</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6226227808089015</v>
+        <v>0.3664819420083008</v>
       </c>
       <c r="K2" t="n">
-        <v>1.097238087620238</v>
+        <v>0.55981911361522</v>
       </c>
       <c r="L2" t="n">
-        <v>1.700927260267958</v>
+        <v>0.9036101631914784</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6925038659029596</v>
+        <v>0.6695573686272532</v>
       </c>
       <c r="N2" t="n">
-        <v>1.101245353827086</v>
+        <v>1.094646876454259</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7219851891550735</v>
+        <v>0.6980618119845426</v>
       </c>
       <c r="P2" t="n">
-        <v>83.4697658336195</v>
+        <v>83.60455371503339</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.4436746532157</v>
+        <v>133.5784625346296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_23</t>
+          <t>model_23_7_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9282095600496791</v>
+        <v>0.9332294231698283</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7974416510154803</v>
+        <v>0.8276469897873487</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8547699280657242</v>
+        <v>0.4493275318493369</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8961427099056234</v>
+        <v>0.9645838936124648</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8748118537257554</v>
+        <v>0.9335324766358095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4800630025123758</v>
+        <v>0.4464951547135948</v>
       </c>
       <c r="H3" t="n">
-        <v>1.354508612354919</v>
+        <v>1.152525372904638</v>
       </c>
       <c r="I3" t="n">
-        <v>1.582005134100352</v>
+        <v>0.7752552983257334</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6315571861696653</v>
+        <v>0.3664110465241961</v>
       </c>
       <c r="K3" t="n">
-        <v>1.106781160135009</v>
+        <v>0.5708331873916906</v>
       </c>
       <c r="L3" t="n">
-        <v>1.692295173378473</v>
+        <v>0.9049652044302237</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6928657896825156</v>
+        <v>0.6682029292913904</v>
       </c>
       <c r="N3" t="n">
-        <v>1.10135120934163</v>
+        <v>1.094264343760242</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7223625207792106</v>
+        <v>0.6966497113620761</v>
       </c>
       <c r="P3" t="n">
-        <v>83.4676758569186</v>
+        <v>83.61265346085948</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.4415846765148</v>
+        <v>133.5865622804557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_21</t>
+          <t>model_23_7_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9283542183816466</v>
+        <v>0.9334763485658604</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7974398202366407</v>
+        <v>0.827514415466359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8566209627427849</v>
+        <v>0.4334797306747408</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8991202924586671</v>
+        <v>0.9645782369964597</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8769762275168604</v>
+        <v>0.9322301190771565</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4790956715804195</v>
+        <v>0.4448439634533411</v>
       </c>
       <c r="H4" t="n">
-        <v>1.354520854781449</v>
+        <v>1.153411897999545</v>
       </c>
       <c r="I4" t="n">
-        <v>1.561841635428858</v>
+        <v>0.7975663680414196</v>
       </c>
       <c r="J4" t="n">
-        <v>0.613450477848282</v>
+        <v>0.3664695692360808</v>
       </c>
       <c r="K4" t="n">
-        <v>1.08764605663857</v>
+        <v>0.5820180319398494</v>
       </c>
       <c r="L4" t="n">
-        <v>1.709568015520977</v>
+        <v>0.9063861719990146</v>
       </c>
       <c r="M4" t="n">
-        <v>0.692167372519407</v>
+        <v>0.6669662386158246</v>
       </c>
       <c r="N4" t="n">
-        <v>1.101146985814146</v>
+        <v>1.093915743201138</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7216343705515457</v>
+        <v>0.6953603722041489</v>
       </c>
       <c r="P4" t="n">
-        <v>83.47170993922863</v>
+        <v>83.62006340446186</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.4456187588248</v>
+        <v>133.5939722240581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_24</t>
+          <t>model_23_7_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9281295767733281</v>
+        <v>0.9336999283018855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7974268314577279</v>
+        <v>0.8273626575098909</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8538262151846132</v>
+        <v>0.4174871621596836</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8947122373278853</v>
+        <v>0.9645603545124811</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8737385137819464</v>
+        <v>0.9309085572967863</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4805978510496247</v>
+        <v>0.4433488847290505</v>
       </c>
       <c r="H5" t="n">
-        <v>1.354607710805847</v>
+        <v>1.154426704153229</v>
       </c>
       <c r="I5" t="n">
-        <v>1.592285089230511</v>
+        <v>0.8200812461081821</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6402559037586583</v>
+        <v>0.3666545794005905</v>
       </c>
       <c r="K5" t="n">
-        <v>1.116270496494585</v>
+        <v>0.5933678052613295</v>
       </c>
       <c r="L5" t="n">
-        <v>1.683680506610202</v>
+        <v>0.9078708844171364</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6932516505927878</v>
+        <v>0.6658444898991434</v>
       </c>
       <c r="N5" t="n">
-        <v>1.101464126908243</v>
+        <v>1.093600101220868</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7227648085872753</v>
+        <v>0.6941908683222586</v>
       </c>
       <c r="P5" t="n">
-        <v>83.46544885416095</v>
+        <v>83.62679653742694</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.4393576737572</v>
+        <v>133.6007053570232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_20</t>
+          <t>model_23_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9284180942612226</v>
+        <v>0.9339006380788321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7974224533705307</v>
+        <v>0.8271922625551331</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8575266608360198</v>
+        <v>0.4013562825056767</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9006668749791416</v>
+        <v>0.9645304271939065</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8780660796683987</v>
+        <v>0.9295683704553395</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4786685332795737</v>
+        <v>0.4420067375264261</v>
       </c>
       <c r="H6" t="n">
-        <v>1.354636987095094</v>
+        <v>1.155566136000291</v>
       </c>
       <c r="I6" t="n">
-        <v>1.551975779037277</v>
+        <v>0.8427908432674905</v>
       </c>
       <c r="J6" t="n">
-        <v>0.604045694573825</v>
+        <v>0.3669642040667984</v>
       </c>
       <c r="K6" t="n">
-        <v>1.078010736805551</v>
+        <v>0.6048775334365738</v>
       </c>
       <c r="L6" t="n">
-        <v>1.718211908742804</v>
+        <v>0.909412999847617</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6918587524051233</v>
+        <v>0.6648358726230302</v>
       </c>
       <c r="N6" t="n">
-        <v>1.101056808101804</v>
+        <v>1.093316746241649</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7213126118400652</v>
+        <v>0.6931393121205758</v>
       </c>
       <c r="P6" t="n">
-        <v>83.47349383688109</v>
+        <v>83.63286030749632</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.4474026564773</v>
+        <v>133.6067691270925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_19</t>
+          <t>model_23_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9284758392542304</v>
+        <v>0.9340789113214323</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7973935149896147</v>
+        <v>0.827003694568214</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8584179083787103</v>
+        <v>0.3850897673958932</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9022521733111967</v>
+        <v>0.9644887020234603</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8791603442449556</v>
+        <v>0.9282099749607796</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4782823922454387</v>
+        <v>0.4408146235322851</v>
       </c>
       <c r="H7" t="n">
-        <v>1.354830498181528</v>
+        <v>1.156827090997095</v>
       </c>
       <c r="I7" t="n">
-        <v>1.542267333881863</v>
+        <v>0.8656913926022087</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5944054800744636</v>
+        <v>0.367395887979262</v>
       </c>
       <c r="K7" t="n">
-        <v>1.068336406978163</v>
+        <v>0.6165436402907354</v>
       </c>
       <c r="L7" t="n">
-        <v>1.726853178233656</v>
+        <v>0.9110129525566564</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6915796355051519</v>
+        <v>0.6639387197116049</v>
       </c>
       <c r="N7" t="n">
-        <v>1.100975285758734</v>
+        <v>1.093065066369743</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7210216123558104</v>
+        <v>0.6922039655523484</v>
       </c>
       <c r="P7" t="n">
-        <v>83.4751078843512</v>
+        <v>83.63826169342242</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.4490167039474</v>
+        <v>133.6121705130187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_18</t>
+          <t>model_23_7_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9285266913323357</v>
+        <v>0.9342355031394842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7973525783260845</v>
+        <v>0.8267974307641027</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8592932056428876</v>
+        <v>0.3686961601806309</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9038748010126205</v>
+        <v>0.9644354973096995</v>
       </c>
       <c r="F8" t="n">
-        <v>0.880257620510671</v>
+        <v>0.9268342547789841</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4779423441649964</v>
+        <v>0.4397674933239329</v>
       </c>
       <c r="H8" t="n">
-        <v>1.35510424183905</v>
+        <v>1.158206378004944</v>
       </c>
       <c r="I8" t="n">
-        <v>1.532732636643546</v>
+        <v>0.8887708664952558</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5845382653187061</v>
+        <v>0.3679463379535138</v>
       </c>
       <c r="K8" t="n">
-        <v>1.058635450981126</v>
+        <v>0.6283585341905809</v>
       </c>
       <c r="L8" t="n">
-        <v>1.735484504286327</v>
+        <v>0.9126684388027093</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6913337429671695</v>
+        <v>0.6631496764109389</v>
       </c>
       <c r="N8" t="n">
-        <v>1.100903494589644</v>
+        <v>1.092843995567787</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7207652516634184</v>
+        <v>0.6913813310448284</v>
       </c>
       <c r="P8" t="n">
-        <v>83.47653034533481</v>
+        <v>83.64301823199784</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.4504391649311</v>
+        <v>133.6169270515941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_17</t>
+          <t>model_23_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9285702819771631</v>
+        <v>0.9343708304472836</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7972992691438628</v>
+        <v>0.8265739225859871</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8601517594116382</v>
+        <v>0.3521796523107055</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9055342353793709</v>
+        <v>0.9643708765062642</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8813572400324632</v>
+        <v>0.9254415655385998</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4776508533223192</v>
+        <v>0.4388625589935531</v>
       </c>
       <c r="H9" t="n">
-        <v>1.355460720586033</v>
+        <v>1.159700978221164</v>
       </c>
       <c r="I9" t="n">
-        <v>1.523380327910411</v>
+        <v>0.9120233640806172</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5744472288748915</v>
+        <v>0.3686148975053414</v>
       </c>
       <c r="K9" t="n">
-        <v>1.048913778392651</v>
+        <v>0.6403191609432693</v>
       </c>
       <c r="L9" t="n">
-        <v>1.744098513011457</v>
+        <v>0.9143699513670909</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6911228930677374</v>
+        <v>0.6624670248348616</v>
       </c>
       <c r="N9" t="n">
-        <v>1.10084195485577</v>
+        <v>1.092652945250894</v>
       </c>
       <c r="O9" t="n">
-        <v>0.720545425447248</v>
+        <v>0.6906696175778738</v>
       </c>
       <c r="P9" t="n">
-        <v>83.47775049153294</v>
+        <v>83.64713798477875</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.4516593111292</v>
+        <v>133.621046804375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_16</t>
+          <t>model_23_7_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9286057916647361</v>
+        <v>0.9344853354568068</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7972330987722502</v>
+        <v>0.8263336231818543</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8609920677459967</v>
+        <v>0.3355437954078352</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9072295979859702</v>
+        <v>0.9642952373179592</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8824579754253448</v>
+        <v>0.9240324694620606</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4774133998780116</v>
+        <v>0.4380968634676251</v>
       </c>
       <c r="H10" t="n">
-        <v>1.355903202165693</v>
+        <v>1.161307861443076</v>
       </c>
       <c r="I10" t="n">
-        <v>1.514226768447987</v>
+        <v>0.9354438852652905</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5641377124568518</v>
+        <v>0.3693974520256439</v>
       </c>
       <c r="K10" t="n">
-        <v>1.03918224045242</v>
+        <v>0.6524206920971333</v>
       </c>
       <c r="L10" t="n">
-        <v>1.752688068277019</v>
+        <v>0.916124398483105</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6909510835638162</v>
+        <v>0.6618888603592185</v>
       </c>
       <c r="N10" t="n">
-        <v>1.100791823532137</v>
+        <v>1.092491291119802</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7203663016570501</v>
+        <v>0.6900668394435371</v>
       </c>
       <c r="P10" t="n">
-        <v>83.47874499404271</v>
+        <v>83.65063048717234</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.452653813639</v>
+        <v>133.6245393067686</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_15</t>
+          <t>model_23_7_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9286326754476155</v>
+        <v>0.9345796151650351</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7971535618543319</v>
+        <v>0.8260770330045545</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8618128596707302</v>
+        <v>0.3187957033403558</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9089595565527038</v>
+        <v>0.9642085567301124</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8835585855059196</v>
+        <v>0.9226075255041716</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4772336278981087</v>
+        <v>0.4374664146245845</v>
       </c>
       <c r="H11" t="n">
-        <v>1.356435065902046</v>
+        <v>1.16302368114017</v>
       </c>
       <c r="I11" t="n">
-        <v>1.505285803111662</v>
+        <v>0.9590224149051784</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5536178176704241</v>
+        <v>0.3702942396216249</v>
       </c>
       <c r="K11" t="n">
-        <v>1.029451810391043</v>
+        <v>0.6646583272634017</v>
       </c>
       <c r="L11" t="n">
-        <v>1.761249754118556</v>
+        <v>0.9179223135158573</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6908209810783896</v>
+        <v>0.661412439121449</v>
       </c>
       <c r="N11" t="n">
-        <v>1.100753869956308</v>
+        <v>1.092358190355245</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7202306604394697</v>
+        <v>0.6895701359673478</v>
       </c>
       <c r="P11" t="n">
-        <v>83.47949824409974</v>
+        <v>83.6535106854071</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.453407063696</v>
+        <v>133.6274195050033</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_14</t>
+          <t>model_23_7_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9286499771149626</v>
+        <v>0.9346541205457215</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7970602725027869</v>
+        <v>0.8258045287886154</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8626126655342216</v>
+        <v>0.3019389110818913</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9107223344309074</v>
+        <v>0.9641111968770464</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8846575538705298</v>
+        <v>0.9211672396689399</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4771179315688917</v>
+        <v>0.4369681968008685</v>
       </c>
       <c r="H12" t="n">
-        <v>1.357058892225386</v>
+        <v>1.16484591808692</v>
       </c>
       <c r="I12" t="n">
-        <v>1.496573440957771</v>
+        <v>0.9827539763450275</v>
       </c>
       <c r="J12" t="n">
-        <v>0.542898348333329</v>
+        <v>0.3713015136923826</v>
       </c>
       <c r="K12" t="n">
-        <v>1.01973589464555</v>
+        <v>0.6770277208027935</v>
       </c>
       <c r="L12" t="n">
-        <v>1.769772351502429</v>
+        <v>0.9197632740733799</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6907372377169857</v>
+        <v>0.6610357000955913</v>
       </c>
       <c r="N12" t="n">
-        <v>1.100729444072994</v>
+        <v>1.092253006288393</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7201433519497982</v>
+        <v>0.6891773583812021</v>
       </c>
       <c r="P12" t="n">
-        <v>83.47998316531618</v>
+        <v>83.65578972546849</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.4538919849124</v>
+        <v>133.6296985450647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_13</t>
+          <t>model_23_7_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9286569701592965</v>
+        <v>0.93470935524137</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7969527566278218</v>
+        <v>0.825516591144709</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8633899568807376</v>
+        <v>0.2849812191031588</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9125161521806284</v>
+        <v>0.9640033129779969</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8857533269287147</v>
+        <v>0.9197123419413418</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4770711690492306</v>
+        <v>0.4365988421367342</v>
       </c>
       <c r="H13" t="n">
-        <v>1.357777851376342</v>
+        <v>1.166771358437554</v>
       </c>
       <c r="I13" t="n">
-        <v>1.488106331601545</v>
+        <v>1.00662758781872</v>
       </c>
       <c r="J13" t="n">
-        <v>0.531990125237141</v>
+        <v>0.3724176683571922</v>
       </c>
       <c r="K13" t="n">
-        <v>1.010048228419343</v>
+        <v>0.6895226034934459</v>
       </c>
       <c r="L13" t="n">
-        <v>1.778248554685015</v>
+        <v>0.9216466584285657</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6907033871708106</v>
+        <v>0.6607562653026714</v>
       </c>
       <c r="N13" t="n">
-        <v>1.100719571539817</v>
+        <v>1.092175027894537</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7201080603157921</v>
+        <v>0.6888860274706378</v>
       </c>
       <c r="P13" t="n">
-        <v>83.48017919572428</v>
+        <v>83.65748097373992</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.4540880153205</v>
+        <v>133.6313897933362</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9286525436254044</v>
+        <v>0.93474579031478</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7968304662318599</v>
+        <v>0.8252136059857944</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8641426449572571</v>
+        <v>0.2679244839121165</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9143388195953515</v>
+        <v>0.9638850519006671</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8868438646459499</v>
+        <v>0.9182430728189701</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4771007693017495</v>
+        <v>0.4363552006330735</v>
       </c>
       <c r="H14" t="n">
-        <v>1.358595607817235</v>
+        <v>1.168797421590334</v>
       </c>
       <c r="I14" t="n">
-        <v>1.479907228030427</v>
+        <v>1.030640635671653</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5209064670488752</v>
+        <v>0.3736411841393432</v>
       </c>
       <c r="K14" t="n">
-        <v>1.000406847539651</v>
+        <v>0.702140909905498</v>
       </c>
       <c r="L14" t="n">
-        <v>1.78667134344329</v>
+        <v>0.9235685524984604</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6907248144534475</v>
+        <v>0.6605718739343006</v>
       </c>
       <c r="N14" t="n">
-        <v>1.100725820764135</v>
+        <v>1.09212359014384</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7201303998022115</v>
+        <v>0.6886937861799728</v>
       </c>
       <c r="P14" t="n">
-        <v>83.48005510801498</v>
+        <v>83.65859737390785</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.4539639276112</v>
+        <v>133.6325061935041</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_11</t>
+          <t>model_23_7_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9286358825410428</v>
+        <v>0.934763974922977</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7966930146916626</v>
+        <v>0.8248959934619008</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8648693148216708</v>
+        <v>0.250777769440617</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9161880111123746</v>
+        <v>0.963756515965428</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8879274955448534</v>
+        <v>0.9167602367158706</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4772121820495927</v>
+        <v>0.4362336000743277</v>
       </c>
       <c r="H15" t="n">
-        <v>1.35951474689944</v>
+        <v>1.170921298000082</v>
       </c>
       <c r="I15" t="n">
-        <v>1.471991543344828</v>
+        <v>1.054780359394451</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5096615155378292</v>
+        <v>0.3749710024438055</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9908265294413289</v>
+        <v>0.7148757316089319</v>
       </c>
       <c r="L15" t="n">
-        <v>1.795034846874426</v>
+        <v>0.9255205904709508</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6908054589025717</v>
+        <v>0.6604798256376403</v>
       </c>
       <c r="N15" t="n">
-        <v>1.100749342294998</v>
+        <v>1.092097917755797</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7202144774524919</v>
+        <v>0.6885978191967573</v>
       </c>
       <c r="P15" t="n">
-        <v>83.47958812179964</v>
+        <v>83.65915479824993</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.4534969413959</v>
+        <v>133.6330636178461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_10</t>
+          <t>model_23_7_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9286056073092153</v>
+        <v>0.9347642010555721</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7965398909563524</v>
+        <v>0.8245641737526165</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8655675083939109</v>
+        <v>0.2335411142765286</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9180599842142159</v>
+        <v>0.9636180795243283</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8890014182052481</v>
+        <v>0.9152640811399115</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4774146326642286</v>
+        <v>0.4362320879246231</v>
       </c>
       <c r="H16" t="n">
-        <v>1.360538686022531</v>
+        <v>1.173140177923956</v>
       </c>
       <c r="I16" t="n">
-        <v>1.464386053647216</v>
+        <v>1.079046704661811</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4982780289890288</v>
+        <v>0.3764032502664593</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9813320413181224</v>
+        <v>0.7277249429685759</v>
       </c>
       <c r="L16" t="n">
-        <v>1.803326038079369</v>
+        <v>0.9275097626521007</v>
       </c>
       <c r="M16" t="n">
-        <v>0.69095197565694</v>
+        <v>0.6604786809009229</v>
       </c>
       <c r="N16" t="n">
-        <v>1.100792083798755</v>
+        <v>1.09209759850978</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7203672317284251</v>
+        <v>0.6885966257262279</v>
       </c>
       <c r="P16" t="n">
-        <v>83.47873982961028</v>
+        <v>83.65916173101405</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.4526486492065</v>
+        <v>133.6330705506103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_9</t>
+          <t>model_23_7_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9285605017469745</v>
+        <v>0.9347470631721785</v>
       </c>
       <c r="C17" t="n">
-        <v>0.796370596581599</v>
+        <v>0.8242185447060031</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8662346171010538</v>
+        <v>0.2162228186153756</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9199526513422289</v>
+        <v>0.9634697323843506</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8900633076543426</v>
+        <v>0.913755248479726</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4777162537666246</v>
+        <v>0.4363466890297892</v>
       </c>
       <c r="H17" t="n">
-        <v>1.361670758286035</v>
+        <v>1.175451400950134</v>
       </c>
       <c r="I17" t="n">
-        <v>1.4571191743732</v>
+        <v>1.103427986178153</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4867687018668065</v>
+        <v>0.3779380330631136</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9719439381200035</v>
+        <v>0.7406830270532673</v>
       </c>
       <c r="L17" t="n">
-        <v>1.811540567631687</v>
+        <v>0.9295268494080325</v>
       </c>
       <c r="M17" t="n">
-        <v>0.691170206075627</v>
+        <v>0.6605654313009341</v>
       </c>
       <c r="N17" t="n">
-        <v>1.100855762239565</v>
+        <v>1.092121793168689</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7205947526678348</v>
+        <v>0.6886870692703658</v>
       </c>
       <c r="P17" t="n">
-        <v>83.47747666822912</v>
+        <v>83.65863638655759</v>
       </c>
       <c r="Q17" t="n">
-        <v>133.4513854878253</v>
+        <v>133.6325452061538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_8</t>
+          <t>model_23_7_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9284990494441997</v>
+        <v>0.93471297551665</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7961847344709095</v>
+        <v>0.8238594864172946</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8668677442410513</v>
+        <v>0.1988272177285337</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9218617467343204</v>
+        <v>0.963311742185214</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8911099123046133</v>
+        <v>0.9122342731602912</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4781271855982411</v>
+        <v>0.436574633339267</v>
       </c>
       <c r="H18" t="n">
-        <v>1.362913619076032</v>
+        <v>1.17785242538004</v>
       </c>
       <c r="I18" t="n">
-        <v>1.450222459576642</v>
+        <v>1.127918100602022</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4751594743117341</v>
+        <v>0.3795725818633913</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9626909669441883</v>
+        <v>0.7537453941401211</v>
       </c>
       <c r="L18" t="n">
-        <v>1.81966821544182</v>
+        <v>0.9315737122580526</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6914674147045839</v>
+        <v>0.660737946041596</v>
       </c>
       <c r="N18" t="n">
-        <v>1.100942518431718</v>
+        <v>1.092169916917671</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7209046140834332</v>
+        <v>0.6888669283206924</v>
       </c>
       <c r="P18" t="n">
-        <v>83.47575700645184</v>
+        <v>83.65759187402791</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.4496658260481</v>
+        <v>133.6315006936241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_7</t>
+          <t>model_23_7_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9284198404369479</v>
+        <v>0.9346623513255434</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7959819137125974</v>
+        <v>0.8234873949290076</v>
       </c>
       <c r="D19" t="n">
-        <v>0.867464540307441</v>
+        <v>0.1813590713455244</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9237832284932671</v>
+        <v>0.9631441472913744</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8921383946634618</v>
+        <v>0.9107015992848946</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4786568565944574</v>
+        <v>0.4369131575382997</v>
       </c>
       <c r="H19" t="n">
-        <v>1.364269882420769</v>
+        <v>1.180340602875539</v>
       </c>
       <c r="I19" t="n">
-        <v>1.443721502657287</v>
+        <v>1.152510347025448</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4634749251399429</v>
+        <v>0.381306499752949</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9535982138986151</v>
+        <v>0.7669082302026421</v>
       </c>
       <c r="L19" t="n">
-        <v>1.827701091062998</v>
+        <v>0.9336460651310443</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6918503137199964</v>
+        <v>0.6609940677028044</v>
       </c>
       <c r="N19" t="n">
-        <v>1.101054342912544</v>
+        <v>1.092241386363939</v>
       </c>
       <c r="O19" t="n">
-        <v>0.721303813902642</v>
+        <v>0.6891339536112634</v>
       </c>
       <c r="P19" t="n">
-        <v>83.47354262566384</v>
+        <v>83.65604165560693</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.4474514452601</v>
+        <v>133.6299504752031</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_6</t>
+          <t>model_23_7_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9283211529530385</v>
+        <v>0.9345956448347671</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7957616617307295</v>
+        <v>0.8231026585511451</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8680218073608647</v>
+        <v>0.1638220326177057</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9257130768477414</v>
+        <v>0.9629673208713261</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8931454021623427</v>
+        <v>0.9091576797767033</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4793167802537738</v>
+        <v>0.4373592241492767</v>
       </c>
       <c r="H20" t="n">
-        <v>1.365742708437687</v>
+        <v>1.182913336805853</v>
       </c>
       <c r="I20" t="n">
-        <v>1.437651139075975</v>
+        <v>1.177199582418574</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4517394986197788</v>
+        <v>0.3831359259725935</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9446953188478769</v>
+        <v>0.7801676454678704</v>
       </c>
       <c r="L20" t="n">
-        <v>1.835633892316828</v>
+        <v>0.9357403987419022</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6923270760657666</v>
+        <v>0.6613314026638056</v>
       </c>
       <c r="N20" t="n">
-        <v>1.10119366641924</v>
+        <v>1.09233556023327</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7218008730085058</v>
+        <v>0.6894856496199341</v>
       </c>
       <c r="P20" t="n">
-        <v>83.47078712702245</v>
+        <v>83.65400079667542</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.4446959466187</v>
+        <v>133.6279096162717</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_5</t>
+          <t>model_23_7_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9282011089455423</v>
+        <v>0.9345132477364076</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7955237977799183</v>
+        <v>0.822705601756514</v>
       </c>
       <c r="D21" t="n">
-        <v>0.868535105494618</v>
+        <v>0.1462208256599861</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9276464086307376</v>
+        <v>0.9627812283960264</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8941265201746843</v>
+        <v>0.9076029295355386</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4801195150846529</v>
+        <v>0.4379102139254097</v>
       </c>
       <c r="H21" t="n">
-        <v>1.367333305772024</v>
+        <v>1.18556845741983</v>
       </c>
       <c r="I21" t="n">
-        <v>1.432059733163229</v>
+        <v>1.201979156012884</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4399828893370614</v>
+        <v>0.3850612177559056</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9360213112501451</v>
+        <v>0.7935200767131146</v>
       </c>
       <c r="L21" t="n">
-        <v>1.843457483119741</v>
+        <v>0.9378572304024533</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6929065702420875</v>
+        <v>0.6617478476923138</v>
       </c>
       <c r="N21" t="n">
-        <v>1.101363140312176</v>
+        <v>1.092451885548601</v>
       </c>
       <c r="O21" t="n">
-        <v>0.722405037451631</v>
+        <v>0.6899198235754659</v>
       </c>
       <c r="P21" t="n">
-        <v>83.46744043262663</v>
+        <v>83.6514827613142</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.4413492522229</v>
+        <v>133.6253915809104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_4</t>
+          <t>model_23_7_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9280577122298583</v>
+        <v>0.9344156619777655</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7952680390001285</v>
+        <v>0.8222966174909531</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8690008931646065</v>
+        <v>0.1285611273929199</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9295783308888903</v>
+        <v>0.9625861342752324</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8950778841532585</v>
+        <v>0.9060379454232275</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4810784095827131</v>
+        <v>0.4385627703427913</v>
       </c>
       <c r="H22" t="n">
-        <v>1.369043565910139</v>
+        <v>1.188303337086835</v>
       </c>
       <c r="I22" t="n">
-        <v>1.426985863299307</v>
+        <v>1.226841075647898</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4282348513885572</v>
+        <v>0.3870796395493298</v>
       </c>
       <c r="K22" t="n">
-        <v>0.927610357343932</v>
+        <v>0.8069603979983394</v>
       </c>
       <c r="L22" t="n">
-        <v>1.851158587042971</v>
+        <v>0.9399940746015263</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6935981614614568</v>
+        <v>0.662240719333077</v>
       </c>
       <c r="N22" t="n">
-        <v>1.101565582734318</v>
+        <v>1.092589653678449</v>
       </c>
       <c r="O22" t="n">
-        <v>0.723126071141</v>
+        <v>0.6904336777823613</v>
       </c>
       <c r="P22" t="n">
-        <v>83.46345001695238</v>
+        <v>83.64850465908097</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.4373588365486</v>
+        <v>133.6224134786772</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_3</t>
+          <t>model_23_7_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9278887531890697</v>
+        <v>0.934303220430451</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7949941852359068</v>
+        <v>0.8218760909112863</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8694144374654752</v>
+        <v>0.1108478271150209</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9315035998235781</v>
+        <v>0.9623822859262426</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8959947749413472</v>
+        <v>0.9044633270210232</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4822082394664511</v>
+        <v>0.4393146674874284</v>
       </c>
       <c r="H23" t="n">
-        <v>1.370874827292471</v>
+        <v>1.191115400261414</v>
       </c>
       <c r="I23" t="n">
-        <v>1.422481085477203</v>
+        <v>1.251778458004045</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4165272723644332</v>
+        <v>0.3891886316013711</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9195041789208179</v>
+        <v>0.8204834600286627</v>
       </c>
       <c r="L23" t="n">
-        <v>1.858737390096391</v>
+        <v>0.9421481143296283</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6944121538873373</v>
+        <v>0.6628081679395845</v>
       </c>
       <c r="N23" t="n">
-        <v>1.101804113144843</v>
+        <v>1.092748394686422</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7239747169096469</v>
+        <v>0.6910252838508283</v>
       </c>
       <c r="P23" t="n">
-        <v>83.45875845228491</v>
+        <v>83.64507868048261</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.4326672718811</v>
+        <v>133.6189875000788</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_2</t>
+          <t>model_23_7_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9276920226165301</v>
+        <v>0.9341763460697042</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7947022653255138</v>
+        <v>0.8214443206903976</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8697705273554232</v>
+        <v>0.09308391120587955</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9334171365260371</v>
+        <v>0.9621697138644585</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8968722355292206</v>
+        <v>0.9028792927886787</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4835237777108851</v>
+        <v>0.4401630769219451</v>
       </c>
       <c r="H24" t="n">
-        <v>1.372826897077436</v>
+        <v>1.194002649716615</v>
       </c>
       <c r="I24" t="n">
-        <v>1.418602164076173</v>
+        <v>1.276787098755278</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4048910371580343</v>
+        <v>0.3913878782031258</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9117466006171038</v>
+        <v>0.8340873866385399</v>
       </c>
       <c r="L24" t="n">
-        <v>1.866177289092575</v>
+        <v>0.944425248355845</v>
       </c>
       <c r="M24" t="n">
-        <v>0.695358740299484</v>
+        <v>0.6634478705384057</v>
       </c>
       <c r="N24" t="n">
-        <v>1.102081850423722</v>
+        <v>1.092927511431006</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7249616014650625</v>
+        <v>0.6916922199136483</v>
       </c>
       <c r="P24" t="n">
-        <v>83.45330957398427</v>
+        <v>83.64121998273575</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.4272183935805</v>
+        <v>133.615128802332</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_1</t>
+          <t>model_23_7_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9274648975721504</v>
+        <v>0.9340354586556011</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7943921762959001</v>
+        <v>0.8210016840730543</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8700636973710851</v>
+        <v>0.07527421292770375</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9353131506934805</v>
+        <v>0.9619486292176155</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8977049075114395</v>
+        <v>0.901286363315436</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4850425639284659</v>
+        <v>0.4411051917087793</v>
       </c>
       <c r="H25" t="n">
-        <v>1.374900463846292</v>
+        <v>1.196962562814944</v>
       </c>
       <c r="I25" t="n">
-        <v>1.415408634914034</v>
+        <v>1.301860193471829</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3933613566566438</v>
+        <v>0.3936751950508265</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9043849957853392</v>
+        <v>0.8477677069284815</v>
       </c>
       <c r="L25" t="n">
-        <v>1.873477065156462</v>
+        <v>0.9467238977979417</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6964499723084681</v>
+        <v>0.6641575051964551</v>
       </c>
       <c r="N25" t="n">
-        <v>1.102402497545199</v>
+        <v>1.09312641130974</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7260992894798308</v>
+        <v>0.6924320651882371</v>
       </c>
       <c r="P25" t="n">
-        <v>83.4470372624363</v>
+        <v>83.63694380405431</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.4209460820325</v>
+        <v>133.6108526236505</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_23_7_0</t>
+          <t>model_23_7_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9272047880210329</v>
+        <v>0.9338808966239687</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7940643016601632</v>
+        <v>0.8205485129390769</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8702878716121651</v>
+        <v>0.05742275108185935</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9371862824715989</v>
+        <v>0.9617191456117119</v>
       </c>
       <c r="F26" t="n">
-        <v>0.898487204453315</v>
+        <v>0.8996849710170342</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4867819176944833</v>
+        <v>0.4421387487259985</v>
       </c>
       <c r="H26" t="n">
-        <v>1.377092963045188</v>
+        <v>1.199992920274512</v>
       </c>
       <c r="I26" t="n">
-        <v>1.41296668335677</v>
+        <v>1.326992084349409</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3819708241861898</v>
+        <v>0.3960494065826983</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8974687537714798</v>
+        <v>0.8615207072464338</v>
       </c>
       <c r="L26" t="n">
-        <v>1.880626429767844</v>
+        <v>0.9490355192479002</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6976975832654742</v>
+        <v>0.6649351462556318</v>
       </c>
       <c r="N26" t="n">
-        <v>1.10276971102913</v>
+        <v>1.093344616530868</v>
       </c>
       <c r="O26" t="n">
-        <v>0.7274000138181874</v>
+        <v>0.6932428120372419</v>
       </c>
       <c r="P26" t="n">
-        <v>83.43987812760837</v>
+        <v>83.63226307003889</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.4137869472046</v>
+        <v>133.6061718896351</v>
       </c>
     </row>
   </sheetData>
